--- a/EssilorLuxottica Projects/LUX - 7.1 - Retrieve GL Bank Report/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.1 - Retrieve GL Bank Report/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 07 - Retrieve GL Bank Report\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Retrieve GL Bank Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438CE5E6-40C3-4EE4-B847-AB732CFDB497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AC7863-46A8-4389-BDB7-6D758B73F8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="405" windowWidth="18000" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -220,15 +220,9 @@
     <t>strGLBANKFileName</t>
   </si>
   <si>
-    <t>GL_BANK_REPORT</t>
-  </si>
-  <si>
     <t>strGLBANKFilePath</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 07 - Retrieve GL Bank Report\Data\Input</t>
-  </si>
-  <si>
     <t>strMacroFileName</t>
   </si>
   <si>
@@ -244,17 +238,23 @@
     <t>B_CheckFields_CopyAssignments</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 07 - Retrieve GL Bank Report\Data\Output\</t>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Retrieve GL Bank Report\Data\Input</t>
+  </si>
+  <si>
+    <t>GL_BANK_REPORT.xlsx</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Fallout Application\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,13 +275,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -307,13 +300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -634,7 +626,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -704,7 +696,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,39 +752,39 @@
         <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,7 +1779,7 @@
     <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="Input" xr:uid="{B26B2103-785F-439C-91F4-3C39E3CCC2E9}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{B26B2103-785F-439C-91F4-3C39E3CCC2E9}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{2C12F1F3-0A91-4884-920C-7BC4F5F82CE6}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{EAC456BD-D65C-4C5B-802A-BC4191CA8B6C}"/>
   </hyperlinks>

--- a/EssilorLuxottica Projects/LUX - 7.1 - Retrieve GL Bank Report/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.1 - Retrieve GL Bank Report/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Retrieve GL Bank Report\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Retrieve GL Bank Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AC7863-46A8-4389-BDB7-6D758B73F8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79287E6F-BE92-445B-B503-F3F737F38E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="405" windowWidth="20445" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -193,61 +193,19 @@
     <t>Production</t>
   </si>
   <si>
-    <t>strTerm</t>
-  </si>
-  <si>
-    <t>EYEMED</t>
-  </si>
-  <si>
-    <t>strTCode</t>
-  </si>
-  <si>
-    <t>GL_BANK</t>
-  </si>
-  <si>
-    <t>strQuery</t>
-  </si>
-  <si>
-    <t>OPEN_W_BANK</t>
-  </si>
-  <si>
-    <t>strSAPVariant</t>
-  </si>
-  <si>
-    <t>SQ00</t>
-  </si>
-  <si>
-    <t>strGLBANKFileName</t>
-  </si>
-  <si>
-    <t>strGLBANKFilePath</t>
-  </si>
-  <si>
-    <t>strMacroFileName</t>
-  </si>
-  <si>
-    <t>Fallout Application.xlsm</t>
-  </si>
-  <si>
-    <t>strMacroFilePath</t>
-  </si>
-  <si>
-    <t>strMacroName</t>
-  </si>
-  <si>
-    <t>B_CheckFields_CopyAssignments</t>
-  </si>
-  <si>
     <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Retrieve GL Bank Report\Data\Input</t>
-  </si>
-  <si>
-    <t>GL_BANK_REPORT.xlsx</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.1_Daily Fallout Report\LUX - 7.1 - Process Fallout Reports\Data\Input\Fallout Application\</t>
+    <t>strGLQueue</t>
+  </si>
+  <si>
+    <t>LUX-04_LoadSAPGLReports</t>
+  </si>
+  <si>
+    <t>strReportFilePath</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 7.1 - Retrieve GL Bank Report\Data\Output\</t>
   </si>
 </sst>
 </file>
@@ -625,8 +583,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -682,7 +640,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
@@ -696,7 +661,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,75 +682,31 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -795,22 +716,10 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1779,12 +1688,11 @@
     <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{B26B2103-785F-439C-91F4-3C39E3CCC2E9}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{2C12F1F3-0A91-4884-920C-7BC4F5F82CE6}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{EAC456BD-D65C-4C5B-802A-BC4191CA8B6C}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{EAC456BD-D65C-4C5B-802A-BC4191CA8B6C}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{6614498C-9B9B-4250-A9A1-1224F27D61C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1793,8 +1701,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
